--- a/LifeChem raw data/DENV Rdrp LC 50K clustered selected.xlsx
+++ b/LifeChem raw data/DENV Rdrp LC 50K clustered selected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/uccaris_ucl_ac_uk/Documents/DENV project/Datasets/LifeChemicals Oct2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/uccaris_ucl_ac_uk/Documents/GitHub/CNP11-DENVRdrp-LifeChem/LifeChem raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1145BE95-1851-433B-A6E0-B761031B9BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{1145BE95-1851-433B-A6E0-B761031B9BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1F7356-5219-4E75-9707-AE26B6F6F5D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DENV Rdrp LC 50K clustered sele" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="326">
   <si>
     <t>row_names</t>
   </si>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1324,7 +1324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1439,6 +1439,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1484,8 +1495,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1840,11 +1853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,22 +1910,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -1921,13 +1934,13 @@
         <v>17</v>
       </c>
       <c r="I2">
-        <v>719</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>867</v>
+        <v>673</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1935,22 +1948,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -1959,13 +1972,13 @@
         <v>17</v>
       </c>
       <c r="I3">
-        <v>629</v>
+        <v>204</v>
       </c>
       <c r="J3">
-        <v>857</v>
+        <v>270</v>
       </c>
       <c r="K3">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1973,22 +1986,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -1997,13 +2010,13 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>621</v>
+        <v>314</v>
       </c>
       <c r="J4">
-        <v>773</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2011,22 +2024,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -2035,13 +2048,13 @@
         <v>17</v>
       </c>
       <c r="I5">
-        <v>591</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>481</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2049,22 +2062,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="F6">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -2073,13 +2086,13 @@
         <v>17</v>
       </c>
       <c r="I6">
-        <v>584</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>634</v>
+        <v>445</v>
       </c>
       <c r="K6">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2087,22 +2100,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F7">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -2111,13 +2124,13 @@
         <v>17</v>
       </c>
       <c r="I7">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="K7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2125,22 +2138,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="F8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -2149,13 +2162,13 @@
         <v>17</v>
       </c>
       <c r="I8">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="J8">
-        <v>865</v>
+        <v>772</v>
       </c>
       <c r="K8">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -2163,22 +2176,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="F9">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -2187,13 +2200,13 @@
         <v>17</v>
       </c>
       <c r="I9">
-        <v>490</v>
+        <v>414</v>
       </c>
       <c r="J9">
-        <v>772</v>
+        <v>870</v>
       </c>
       <c r="K9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2201,22 +2214,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="F10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -2225,13 +2238,13 @@
         <v>17</v>
       </c>
       <c r="I10">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="J10">
-        <v>819</v>
+        <v>716</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -2239,22 +2252,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="F11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -2263,13 +2276,13 @@
         <v>17</v>
       </c>
       <c r="I11">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="J11">
-        <v>716</v>
+        <v>510</v>
       </c>
       <c r="K11">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2277,22 +2290,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="F12">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G12">
         <v>20</v>
@@ -2301,13 +2314,13 @@
         <v>17</v>
       </c>
       <c r="I12">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="J12">
-        <v>868</v>
+        <v>639</v>
       </c>
       <c r="K12">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2315,22 +2328,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -2339,13 +2352,13 @@
         <v>17</v>
       </c>
       <c r="I13">
-        <v>415</v>
+        <v>207</v>
       </c>
       <c r="J13">
-        <v>510</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2353,22 +2366,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
       <c r="F14">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -2377,13 +2390,13 @@
         <v>17</v>
       </c>
       <c r="I14">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="J14">
-        <v>870</v>
+        <v>761</v>
       </c>
       <c r="K14">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2391,22 +2404,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F15">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>20</v>
@@ -2415,13 +2428,13 @@
         <v>17</v>
       </c>
       <c r="I15">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="J15">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="K15">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2429,22 +2442,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="F16">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G16">
         <v>20</v>
@@ -2453,13 +2466,13 @@
         <v>17</v>
       </c>
       <c r="I16">
-        <v>347</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>472</v>
+        <v>825</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2467,37 +2480,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17">
+        <v>96</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>214</v>
+      </c>
+      <c r="J17">
+        <v>636</v>
+      </c>
+      <c r="K17">
         <v>27</v>
-      </c>
-      <c r="F17">
-        <v>94</v>
-      </c>
-      <c r="G17">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17">
-        <v>314</v>
-      </c>
-      <c r="J17">
-        <v>24</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2505,22 +2518,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -2529,13 +2542,13 @@
         <v>17</v>
       </c>
       <c r="I18">
-        <v>339</v>
+        <v>138</v>
       </c>
       <c r="J18">
-        <v>863</v>
+        <v>414</v>
       </c>
       <c r="K18">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2543,37 +2556,37 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="E19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19">
+        <v>96</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
         <v>221</v>
       </c>
-      <c r="F19">
-        <v>95</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>272</v>
-      </c>
       <c r="J19">
-        <v>761</v>
+        <v>855</v>
       </c>
       <c r="K19">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2619,22 +2632,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="F21">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -2643,13 +2656,13 @@
         <v>17</v>
       </c>
       <c r="I21">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>806</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2657,22 +2670,22 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="F22">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -2681,13 +2694,13 @@
         <v>17</v>
       </c>
       <c r="I22">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="J22">
-        <v>266</v>
+        <v>714</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2695,22 +2708,22 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F23">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -2719,13 +2732,13 @@
         <v>17</v>
       </c>
       <c r="I23">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="J23">
-        <v>270</v>
+        <v>557</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2733,37 +2746,37 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24">
+        <v>97</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24">
         <v>143</v>
       </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24">
-        <v>96</v>
-      </c>
-      <c r="G24">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24">
-        <v>214</v>
-      </c>
       <c r="J24">
-        <v>636</v>
+        <v>822</v>
       </c>
       <c r="K24">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2771,22 +2784,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="F25">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -2795,13 +2808,13 @@
         <v>17</v>
       </c>
       <c r="I25">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="J25">
-        <v>707</v>
+        <v>808</v>
       </c>
       <c r="K25">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2809,22 +2822,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="F26">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -2833,13 +2846,13 @@
         <v>17</v>
       </c>
       <c r="I26">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="J26">
-        <v>855</v>
+        <v>562</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2847,22 +2860,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -2871,13 +2884,13 @@
         <v>17</v>
       </c>
       <c r="I27">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="J27">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="K27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2885,22 +2898,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="F28">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -2909,13 +2922,13 @@
         <v>17</v>
       </c>
       <c r="I28">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="J28">
-        <v>714</v>
+        <v>638</v>
       </c>
       <c r="K28">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2923,22 +2936,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G29">
         <v>20</v>
@@ -2947,13 +2960,13 @@
         <v>17</v>
       </c>
       <c r="I29">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="J29">
-        <v>763</v>
+        <v>127</v>
       </c>
       <c r="K29">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2961,22 +2974,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="F30">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -2985,13 +2998,13 @@
         <v>17</v>
       </c>
       <c r="I30">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="J30">
-        <v>806</v>
+        <v>724</v>
       </c>
       <c r="K30">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2999,22 +3012,22 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F31">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -3023,13 +3036,13 @@
         <v>17</v>
       </c>
       <c r="I31">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="J31">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="K31">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -3037,22 +3050,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="F32">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -3061,13 +3074,13 @@
         <v>17</v>
       </c>
       <c r="I32">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J32">
-        <v>557</v>
+        <v>781</v>
       </c>
       <c r="K32">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -3075,22 +3088,22 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="F33">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -3099,13 +3112,13 @@
         <v>17</v>
       </c>
       <c r="I33">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="J33">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="K33">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -3113,22 +3126,22 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="F34">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -3137,13 +3150,13 @@
         <v>17</v>
       </c>
       <c r="I34">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="J34">
-        <v>638</v>
+        <v>869</v>
       </c>
       <c r="K34">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -3151,37 +3164,37 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="E35" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35">
+        <v>97</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35">
         <v>187</v>
       </c>
-      <c r="F35">
-        <v>98</v>
-      </c>
-      <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35">
-        <v>75</v>
-      </c>
       <c r="J35">
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="K35">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -3189,19 +3202,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="F36">
         <v>98</v>
@@ -3213,13 +3226,13 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="J36">
-        <v>724</v>
+        <v>564</v>
       </c>
       <c r="K36">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -3227,22 +3240,22 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="F37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G37">
         <v>20</v>
@@ -3251,13 +3264,13 @@
         <v>17</v>
       </c>
       <c r="I37">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J37">
-        <v>808</v>
+        <v>409</v>
       </c>
       <c r="K37">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -3265,22 +3278,22 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="F38">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G38">
         <v>20</v>
@@ -3289,13 +3302,13 @@
         <v>17</v>
       </c>
       <c r="I38">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="J38">
-        <v>818</v>
+        <v>373</v>
       </c>
       <c r="K38">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -3303,22 +3316,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="F39">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G39">
         <v>20</v>
@@ -3327,13 +3340,13 @@
         <v>17</v>
       </c>
       <c r="I39">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J39">
-        <v>397</v>
+        <v>511</v>
       </c>
       <c r="K39">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3341,22 +3354,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="F40">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -3365,13 +3378,13 @@
         <v>17</v>
       </c>
       <c r="I40">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>409</v>
+        <v>656</v>
       </c>
       <c r="K40">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -3379,22 +3392,22 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="F41">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G41">
         <v>20</v>
@@ -3403,13 +3416,13 @@
         <v>17</v>
       </c>
       <c r="I41">
+        <v>621</v>
+      </c>
+      <c r="J41">
+        <v>773</v>
+      </c>
+      <c r="K41">
         <v>45</v>
-      </c>
-      <c r="J41">
-        <v>474</v>
-      </c>
-      <c r="K41">
-        <v>17</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -3417,22 +3430,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -3441,13 +3454,13 @@
         <v>17</v>
       </c>
       <c r="I42">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -3455,22 +3468,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F43">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G43">
         <v>20</v>
@@ -3479,13 +3492,13 @@
         <v>17</v>
       </c>
       <c r="I43">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="J43">
-        <v>572</v>
+        <v>472</v>
       </c>
       <c r="K43">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -3493,22 +3506,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>102</v>
       </c>
       <c r="F44">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -3517,13 +3530,13 @@
         <v>17</v>
       </c>
       <c r="I44">
-        <v>43</v>
+        <v>591</v>
       </c>
       <c r="J44">
-        <v>781</v>
+        <v>481</v>
       </c>
       <c r="K44">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -3531,22 +3544,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="F45">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -3555,13 +3568,13 @@
         <v>17</v>
       </c>
       <c r="I45">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="J45">
-        <v>869</v>
+        <v>841</v>
       </c>
       <c r="K45">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -3569,22 +3582,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -3593,13 +3606,13 @@
         <v>17</v>
       </c>
       <c r="I46">
-        <v>21</v>
+        <v>629</v>
       </c>
       <c r="J46">
-        <v>373</v>
+        <v>857</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3607,22 +3620,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G47">
         <v>20</v>
@@ -3631,13 +3644,13 @@
         <v>17</v>
       </c>
       <c r="I47">
-        <v>23</v>
+        <v>719</v>
       </c>
       <c r="J47">
-        <v>511</v>
+        <v>867</v>
       </c>
       <c r="K47">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3645,22 +3658,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G48">
         <v>20</v>
@@ -3669,13 +3682,13 @@
         <v>17</v>
       </c>
       <c r="I48">
-        <v>32</v>
+        <v>459</v>
       </c>
       <c r="J48">
-        <v>652</v>
+        <v>819</v>
       </c>
       <c r="K48">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -3759,22 +3772,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -3783,13 +3796,13 @@
         <v>17</v>
       </c>
       <c r="I51">
-        <v>27</v>
+        <v>403</v>
       </c>
       <c r="J51">
-        <v>774</v>
+        <v>654</v>
       </c>
       <c r="K51">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3797,22 +3810,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F52">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G52">
         <v>20</v>
@@ -3821,74 +3834,41 @@
         <v>17</v>
       </c>
       <c r="I52">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J52">
-        <v>127</v>
+        <v>426</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53">
-        <v>101</v>
-      </c>
-      <c r="G53">
-        <v>20</v>
-      </c>
-      <c r="H53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53">
-        <v>18</v>
-      </c>
-      <c r="J53">
-        <v>280</v>
-      </c>
-      <c r="K53">
-        <v>9</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
+      <c r="C53" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F54">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G54">
         <v>20</v>
@@ -3897,13 +3877,13 @@
         <v>17</v>
       </c>
       <c r="I54">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J54">
-        <v>825</v>
+        <v>774</v>
       </c>
       <c r="K54">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3911,22 +3891,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F55">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G55">
         <v>20</v>
@@ -3935,13 +3915,13 @@
         <v>17</v>
       </c>
       <c r="I55">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J55">
-        <v>426</v>
+        <v>280</v>
       </c>
       <c r="K55">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3949,22 +3929,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="F56">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G56">
         <v>20</v>
@@ -3973,13 +3953,13 @@
         <v>17</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>584</v>
       </c>
       <c r="J56">
-        <v>445</v>
+        <v>634</v>
       </c>
       <c r="K56">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -4025,22 +4005,22 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="F58">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G58">
         <v>20</v>
@@ -4049,13 +4029,13 @@
         <v>17</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="J58">
-        <v>841</v>
+        <v>572</v>
       </c>
       <c r="K58">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -4063,37 +4043,37 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <v>652</v>
+      </c>
+      <c r="K59">
         <v>31</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59">
-        <v>103</v>
-      </c>
-      <c r="G59">
-        <v>20</v>
-      </c>
-      <c r="H59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59">
-        <v>4</v>
-      </c>
-      <c r="J59">
-        <v>28</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -4101,22 +4081,22 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F60">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G60">
         <v>20</v>
@@ -4125,13 +4105,13 @@
         <v>17</v>
       </c>
       <c r="I60">
+        <v>266</v>
+      </c>
+      <c r="J60">
+        <v>266</v>
+      </c>
+      <c r="K60">
         <v>6</v>
-      </c>
-      <c r="J60">
-        <v>267</v>
-      </c>
-      <c r="K60">
-        <v>7</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -4177,22 +4157,22 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c r="F62">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G62">
         <v>20</v>
@@ -4201,13 +4181,13 @@
         <v>17</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>448</v>
       </c>
       <c r="J62">
-        <v>641</v>
+        <v>868</v>
       </c>
       <c r="K62">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -4215,22 +4195,22 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="F63">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G63">
         <v>20</v>
@@ -4239,13 +4219,13 @@
         <v>17</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>530</v>
       </c>
       <c r="J63">
-        <v>656</v>
+        <v>865</v>
       </c>
       <c r="K63">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4253,22 +4233,22 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F64">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G64">
         <v>20</v>
@@ -4277,22 +4257,60 @@
         <v>17</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65">
+        <v>94</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>339</v>
+      </c>
+      <c r="J65">
+        <v>863</v>
+      </c>
+      <c r="K65">
+        <v>57</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L64">
-      <sortCondition ref="F1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L65">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
